--- a/Excel/Credit Cards.xlsx
+++ b/Excel/Credit Cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A8/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED437CE9-B785-4F00-8809-39602CC94FC6}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1B5987-594C-4361-A8D7-C99F88F02A8E}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="1536" windowWidth="10476" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Bank</t>
   </si>
@@ -56,6 +56,9 @@
     <t>1/N</t>
   </si>
   <si>
+    <t>VISA 3121</t>
+  </si>
+  <si>
     <t>CITI</t>
   </si>
   <si>
@@ -110,21 +113,21 @@
     <t>patreon memb</t>
   </si>
   <si>
-    <t>M/C 3118</t>
+    <t>5444 8800 0134 3118</t>
   </si>
   <si>
     <t>Credit Card</t>
   </si>
   <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
     <t>UP  1082</t>
   </si>
   <si>
     <t>ATM</t>
   </si>
   <si>
-    <t>VISA 3121</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code 7009 </t>
   </si>
   <si>
@@ -167,12 +170,6 @@
     <t>NAPAPORN</t>
   </si>
   <si>
-    <t>5444 8800 0134 3118</t>
-  </si>
-  <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
     <t>02 638 4000</t>
   </si>
   <si>
@@ -185,7 +182,22 @@
     <t>4050 1630 0229 3121</t>
   </si>
   <si>
+    <t>5224 4060 0016 7980</t>
+  </si>
+  <si>
     <t>Password of Citi mobile app = chutima14</t>
+  </si>
+  <si>
+    <t>JMART</t>
+  </si>
+  <si>
+    <t>SEPT</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>APR</t>
   </si>
 </sst>
 </file>
@@ -231,13 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -566,10 +579,11 @@
     <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -596,330 +610,376 @@
       <c r="D2" s="3">
         <v>30000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>242881</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>876</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
         <v>640.92999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3">
         <v>75.709999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3">
         <v>649838</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="3">
+        <v>149838</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <f>D22-E22</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3">
         <v>551136</v>
       </c>
       <c r="E23" s="3">
-        <f>D22+D23</f>
-        <v>1200974</v>
+        <v>163500</v>
       </c>
       <c r="F23" s="3">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>37636</v>
+      </c>
+      <c r="G23" s="3">
+        <f>D23-E23-F23</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="3">
+        <f>G22+G23</f>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3">
         <v>2155.15</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="B28" s="1"/>
       <c r="D28" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="D29" s="3">
         <f>D27*12</f>
         <v>25861.800000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
         <v>312</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F33" s="2">
-        <v>285282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C34" s="2">
         <v>876</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2">
         <v>944</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5224406000167980</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C36" s="2">
         <v>453</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="B37" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2">
+        <v>300000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2">
+        <v>300000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
